--- a/explore/openCyto/tcell.xlsx
+++ b/explore/openCyto/tcell.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28300" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="3020" yWindow="460" windowWidth="28300" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/explore/openCyto/tcell.xlsx
+++ b/explore/openCyto/tcell.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="460" windowWidth="28300" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="5220" yWindow="460" windowWidth="28300" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/explore/openCyto/tcell.xlsx
+++ b/explore/openCyto/tcell.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="460" windowWidth="28300" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="2720" yWindow="6560" windowWidth="28300" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
